--- a/reports/2025-03-31_to_2025-04-29/員工月報.xlsx
+++ b/reports/2025-03-31_to_2025-04-29/員工月報.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3200</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0.05</v>
       </c>
       <c r="D2" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23850</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0.05</v>
       </c>
       <c r="D3" t="n">
-        <v>1192.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
